--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -314,16 +314,22 @@
   <si>
     <t>存在</t>
   </si>
+  <si>
+    <t>再测试</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"再测试")]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -401,7 +407,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,10 +527,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,37 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -468,82 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -569,25 +575,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,55 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,91 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +943,24 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,36 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,11 +1004,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,11 +1030,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,148 +1049,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1885,7 +1891,7 @@
   <sheetPr/>
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A164" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2262,22 +2268,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="9.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.2321428571429" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.5267857142857" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.57142857142857" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.7142857142857" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.2946428571429" style="4" customWidth="1"/>
     <col min="6" max="6" width="81.7857142857143" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.9285714285714" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5357142857143" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.7857142857143" style="4" customWidth="1"/>
     <col min="10" max="11" width="9.57142857142857" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.14285714285714" style="4"/>
@@ -2534,14 +2540,231 @@
         <v>88</v>
       </c>
     </row>
+    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="18" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="3:7">
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="3:8">
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="3:7">
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="3:7">
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="3:7">
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="3:8">
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="3:7">
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="3:8">
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="3:9">
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G25 G26 G1:G11 G13:G14 G15:G24 G27:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
+    <hyperlink ref="F15" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>存在</t>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>测试2</t>
   </si>
   <si>
     <t>再测试</t>
@@ -2271,7 +2277,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2542,10 +2548,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
@@ -2702,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="3:7">
@@ -2747,7 +2753,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>33</v>

--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -313,18 +313,6 @@
   </si>
   <si>
     <t>存在</t>
-  </si>
-  <si>
-    <t>case_2</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>再测试</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"再测试")]</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2262,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2546,231 +2534,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="18" spans="3:8">
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="3:7">
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="3:8">
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="3:7">
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="3:7">
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="3:7">
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="3:8">
-      <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="3:7">
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="3:8">
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="3:9">
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G25 G26 G1:G11 G13:G14 G15:G24 G27:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G14 G15:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
-    <hyperlink ref="F15" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封页" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -314,14 +314,26 @@
   <si>
     <t>存在</t>
   </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>再测试</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"再测试")]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -409,20 +421,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +435,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +464,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -460,6 +481,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -475,6 +504,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -483,14 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -498,45 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -569,13 +581,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +653,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,145 +707,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,21 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1038,147 +1035,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1885,7 +1897,7 @@
   <sheetPr/>
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A164" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2262,10 +2274,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2534,14 +2546,231 @@
         <v>88</v>
       </c>
     </row>
+    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="18" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="3:7">
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="3:8">
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="3:7">
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="3:7">
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="3:7">
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="3:8">
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="3:7">
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="3:8">
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="3:9">
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G14 G15:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G25 G26 G1:G11 G13:G14 G15:G24 G27:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
+    <hyperlink ref="F15" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封页" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -314,28 +314,16 @@
   <si>
     <t>存在</t>
   </si>
-  <si>
-    <t>case_2</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>再测试</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"再测试")]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -413,6 +401,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,7 +469,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,38 +515,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,45 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -526,36 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -575,19 +563,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,67 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,91 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,17 +944,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,15 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1006,6 +976,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,17 +1030,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,148 +1043,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,10 +1201,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1627,7 +1615,7 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Trebuchet MS" panose="020B0703020202090204"/>
+            <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1897,7 +1885,7 @@
   <sheetPr/>
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2274,25 +2262,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.5267857142857" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.57142857142857" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.7142857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.2946428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="81.7857142857143" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.9285714285714" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5357142857143" style="4" customWidth="1"/>
-    <col min="9" max="9" width="19.7857142857143" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.57142857142857" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="4"/>
+    <col min="1" max="1" width="9.57142857142857" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.2321428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.57142857142857" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.2946428571429" style="5" customWidth="1"/>
+    <col min="6" max="6" width="81.7857142857143" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.9285714285714" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.7857142857143" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9.57142857142857" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="16.8" spans="1:11">
@@ -2347,7 +2335,7 @@
       <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2546,231 +2534,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="18" spans="3:8">
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="3:7">
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="3:8">
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="3:7">
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="3:7">
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="3:7">
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="3:8">
-      <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="3:7">
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="3:8">
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="3:9">
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G25 G26 G1:G11 G13:G14 G15:G24 G27:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
-    <hyperlink ref="F15" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2780,13 +2551,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
@@ -2833,12 +2604,109 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="18" spans="3:8">
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="3:7">
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="3:8">
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G6 G7:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://${ip}:8180/app-web/home" tooltip="http://${ip}:8180/app-web/home"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/UITest/case/exampleAppCase.xlsx
+++ b/UITest/case/exampleAppCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12040" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封页" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -264,13 +264,16 @@
     <t>step7</t>
   </si>
   <si>
+    <t>step8</t>
+  </si>
+  <si>
     <t>点击应用2目录</t>
   </si>
   <si>
     <t>//*[@id="app"]//span[text()="应用2目录"]</t>
   </si>
   <si>
-    <t>step8</t>
+    <t>step9</t>
   </si>
   <si>
     <t>点击新增数据</t>
@@ -279,7 +282,7 @@
     <t>//*[@id="app"]//div[@class="menu-collapsed"]/../ul//span[text()="新增数据"]</t>
   </si>
   <si>
-    <t>step9</t>
+    <t>step10</t>
   </si>
   <si>
     <t>文本框输入数据</t>
@@ -291,7 +294,7 @@
     <t>输入测试</t>
   </si>
   <si>
-    <t>step10</t>
+    <t>step11</t>
   </si>
   <si>
     <t>点击新增按钮</t>
@@ -300,10 +303,10 @@
     <t>//*[@id="app"]//section[@addinname="Operation"]//span[text()="新增"]</t>
   </si>
   <si>
-    <t>step11</t>
-  </si>
-  <si>
     <t>step12</t>
+  </si>
+  <si>
+    <t>step13</t>
   </si>
   <si>
     <t>验证输入测试存在</t>
@@ -321,9 +324,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -401,16 +404,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,7 +442,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,103 +541,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -563,187 +566,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +947,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,41 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1029,162 +1041,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2262,10 +2265,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2399,7 +2402,7 @@
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="3:8">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2429,114 +2432,128 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="3:7">
-      <c r="C8" s="3" t="s">
+    <row r="8" s="3" customFormat="1" spans="3:8">
+      <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="3:7">
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="3:8">
-      <c r="C10" s="3" t="s">
-        <v>77</v>
+    <row r="10" s="3" customFormat="1" spans="3:7">
+      <c r="C10" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="3:8">
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="3:7">
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="3:7">
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="3:8">
-      <c r="C12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="3:9">
+    <row r="13" s="3" customFormat="1" spans="3:8">
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="3:9">
+      <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>88</v>
+      <c r="I14" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8 G13 G1:G7 G9:G12 G14:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
@@ -2553,7 +2570,7 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
